--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2600.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2600.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7969904094415442</v>
+        <v>1.444654226303101</v>
       </c>
       <c r="B1">
-        <v>1.525514668575144</v>
+        <v>2.256736040115356</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.070332050323486</v>
       </c>
       <c r="D1">
-        <v>1.887726826322739</v>
+        <v>3.238076686859131</v>
       </c>
       <c r="E1">
-        <v>0.92863256444814</v>
+        <v>1.131497025489807</v>
       </c>
     </row>
   </sheetData>
